--- a/results/birth/SEED_999/result.xlsx
+++ b/results/birth/SEED_999/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2949.04129362901</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>431.0746963310241</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>434.0184351921081</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>442.0884850056966</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>455.2186360168457</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>445.0442343393962</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>456.4610941314697</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>535.1031312561036</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>675.1907266489665</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>3084.494189742516</v>
       </c>
+      <c r="AK5" t="n">
+        <v>532.2268584325789</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>540.3863566357007</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>545.2303038161166</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>562.6111922357381</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>549.4706235084179</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>553.2191127153668</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>652.1437605636816</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>830.2693789194271</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -968,7 +1068,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9990572076996541</v>
+        <v>0.9990572076996539</v>
       </c>
       <c r="D6" t="n">
         <v>0.9993347803243414</v>
@@ -977,7 +1077,7 @@
         <v>0.9990443486036592</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9990278856123234</v>
+        <v>0.9990278856123233</v>
       </c>
       <c r="G6" t="n">
         <v>0.9989814482091085</v>
@@ -992,13 +1092,13 @@
         <v>0.9986376835419234</v>
       </c>
       <c r="K6" t="n">
-        <v>0.998463281253029</v>
+        <v>0.9984632812530292</v>
       </c>
       <c r="L6" t="n">
         <v>0.9963166789891017</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9990478684215717</v>
+        <v>0.9990478684215719</v>
       </c>
       <c r="N6" t="n">
         <v>0.9990153424627755</v>
@@ -1010,7 +1110,7 @@
         <v>0.998958838786726</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9989355060477944</v>
+        <v>0.9989355060477946</v>
       </c>
       <c r="R6" t="n">
         <v>0.9988248135847807</v>
@@ -1040,34 +1140,58 @@
         <v>0.9947185210471439</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9916633721710618</v>
+        <v>0.9916633721710616</v>
       </c>
       <c r="AB6" t="n">
         <v>0.9739125279412008</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9987047030267311</v>
+        <v>0.9987047030267312</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9982252584098523</v>
+        <v>0.9982252584098521</v>
       </c>
       <c r="AE6" t="n">
         <v>0.9976601294333804</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9969923053063229</v>
+        <v>0.9969923053063227</v>
       </c>
       <c r="AG6" t="n">
         <v>0.9960257357668426</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9932304717754415</v>
+        <v>0.9932304717754413</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.9892100130001568</v>
+        <v>0.9892100130001565</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.9661237941073838</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9990560563949743</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9990173393555404</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9990006472173181</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9989340528622581</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9989856657458011</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9989978367756847</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9986149362454411</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9975031909371861</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>1965.922006649971</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>457.2896216392517</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>460.9160689926147</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>469.0771188735962</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>478.7062649726868</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>491.6180555788676</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>491.0989400800069</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>522.3191157341004</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>659.2025764338175</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>2011.124589983257</v>
       </c>
+      <c r="AK8" t="n">
+        <v>570.3243797119386</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>574.575567590014</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>586.0018340183494</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>594.7597998142642</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>607.2216428211774</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>614.203949683111</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>635.342043246599</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>837.5006920164858</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1308,19 +1480,19 @@
         <v>0.9992237508658445</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992695035361203</v>
+        <v>0.9992695035361205</v>
       </c>
       <c r="F9" t="n">
         <v>0.999268041629767</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9992605939404479</v>
+        <v>0.9992605939404476</v>
       </c>
       <c r="H9" t="n">
         <v>0.9992472278452218</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9992278320109029</v>
+        <v>0.9992278320109026</v>
       </c>
       <c r="J9" t="n">
         <v>0.9991510692435582</v>
@@ -1332,19 +1504,19 @@
         <v>0.9979994318671915</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9992695035361203</v>
+        <v>0.9992695035361205</v>
       </c>
       <c r="N9" t="n">
         <v>0.9992691174593912</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9992627232274651</v>
+        <v>0.9992627232274649</v>
       </c>
       <c r="P9" t="n">
         <v>0.9992496521805859</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9992280994810502</v>
+        <v>0.9992280994810504</v>
       </c>
       <c r="R9" t="n">
         <v>0.9991560523880646</v>
@@ -1359,16 +1531,16 @@
         <v>0.9991211397153973</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9989434509272846</v>
+        <v>0.9989434509272842</v>
       </c>
       <c r="W9" t="n">
         <v>0.9987306793307896</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9984823254235283</v>
+        <v>0.9984823254235285</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.998194301591084</v>
+        <v>0.9981943015910842</v>
       </c>
       <c r="Z9" t="n">
         <v>0.9972920940918627</v>
@@ -1377,7 +1549,7 @@
         <v>0.9961119675840432</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.9885143133645864</v>
+        <v>0.9885143133645865</v>
       </c>
       <c r="AC9" t="n">
         <v>0.999123954505164</v>
@@ -1386,10 +1558,10 @@
         <v>0.9989489794814725</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.9987383743891034</v>
+        <v>0.9987383743891032</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9984910585475544</v>
+        <v>0.9984910585475546</v>
       </c>
       <c r="AG9" t="n">
         <v>0.9982017457616172</v>
@@ -1402,6 +1574,30 @@
       </c>
       <c r="AJ9" t="n">
         <v>0.9884722507715327</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9992637710186979</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9992512850217402</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9992258806774564</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9991819670309291</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.999151201069204</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9990875000029596</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9990212248333846</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9979624185505541</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>1883.552561130524</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>273.088470808665</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>276.7389280637105</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>285.3536395581563</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>302.9684701220194</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>294.3688612937927</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>364.7713779894511</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>385.0329274940491</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>710.1054957135518</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>1940.794624309106</v>
       </c>
+      <c r="AK11" t="n">
+        <v>402.3798521038682</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>401.6029136052479</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>406.9162247784251</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>430.2524921809209</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>419.6305782516142</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>511.8494156363107</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>524.973840867762</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>909.0024500478823</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1639,7 +1883,7 @@
         <v>0.9993756148424062</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9992545876234251</v>
+        <v>0.999254587623425</v>
       </c>
       <c r="E12" t="n">
         <v>0.9992828787108662</v>
@@ -1651,10 +1895,10 @@
         <v>0.9992773799642495</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9992552063786597</v>
+        <v>0.9992552063786594</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9992199328679082</v>
+        <v>0.999219932867908</v>
       </c>
       <c r="J12" t="n">
         <v>0.9990773853801665</v>
@@ -1666,40 +1910,40 @@
         <v>0.9973551869225626</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9993890749560385</v>
+        <v>0.9993890749560386</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9993922548725129</v>
+        <v>0.9993922548725127</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9993837796828537</v>
+        <v>0.9993837796828535</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9993647643320812</v>
+        <v>0.9993647643320814</v>
       </c>
       <c r="Q12" t="n">
         <v>0.9993339664710523</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9992539122027452</v>
+        <v>0.9992539122027454</v>
       </c>
       <c r="S12" t="n">
         <v>0.9991155286624935</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9983951346549728</v>
+        <v>0.9983951346549725</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9992081459484086</v>
+        <v>0.9992081459484088</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9989926318062671</v>
+        <v>0.9989926318062669</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9987276101008798</v>
+        <v>0.9987276101008802</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9984113088916851</v>
+        <v>0.9984113088916848</v>
       </c>
       <c r="Y12" t="n">
         <v>0.9980399560018843</v>
@@ -1711,7 +1955,7 @@
         <v>0.9950154000295776</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.9840550853465727</v>
+        <v>0.9840550853465725</v>
       </c>
       <c r="AC12" t="n">
         <v>0.9991728383946946</v>
@@ -1720,13 +1964,13 @@
         <v>0.9989119258494239</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9985925687672165</v>
+        <v>0.9985925687672162</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.998214173294114</v>
+        <v>0.9982141732941139</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.99777464983018</v>
+        <v>0.9977746498301803</v>
       </c>
       <c r="AH12" t="n">
         <v>0.9964159363100961</v>
@@ -1737,15 +1981,40 @@
       <c r="AJ12" t="n">
         <v>0.985167036947535</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.9993614883184079</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.999363617255234</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.999345498506686</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.999267625848628</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9993020313413635</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9989847573538428</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9989066878463636</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9967095090081728</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
